--- a/production code/production dataset.xlsx
+++ b/production code/production dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f619c9dbaff66258/Dokumenty/GitHub/predikce-nabidky/production code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="8_{7CD2E4E8-1F28-44FE-ADE5-F3B50EE5FD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83ABA85D-D210-4E44-B7E4-147AD981EA66}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="8_{7CD2E4E8-1F28-44FE-ADE5-F3B50EE5FD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E1A0D01-F0D0-4D87-B614-81DEF6494E34}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,7 +846,7 @@
   <dimension ref="A1:DC190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="AE113" sqref="AE113"/>
+      <selection activeCell="A101" sqref="A101:XFD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36165,2718 +36165,38 @@
       <c r="CR100"/>
     </row>
     <row r="101" spans="1:96" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="11">
-        <v>202305</v>
-      </c>
-      <c r="B101" s="12">
-        <v>700</v>
-      </c>
-      <c r="C101" s="11">
-        <v>700</v>
-      </c>
-      <c r="D101" s="11">
-        <v>700</v>
-      </c>
-      <c r="E101" s="11">
-        <v>700</v>
-      </c>
-      <c r="F101" s="11">
-        <v>700</v>
-      </c>
-      <c r="G101" s="11">
-        <v>700</v>
-      </c>
-      <c r="H101" s="11">
-        <v>575</v>
-      </c>
-      <c r="I101" s="11">
-        <v>500</v>
-      </c>
-      <c r="J101" s="11">
-        <v>450</v>
-      </c>
-      <c r="K101" s="11">
-        <v>450</v>
-      </c>
-      <c r="L101" s="11">
-        <v>375</v>
-      </c>
-      <c r="M101" s="11">
-        <v>375</v>
-      </c>
-      <c r="N101" s="11">
-        <v>275</v>
-      </c>
-      <c r="P101" s="12">
-        <f t="shared" ref="P101:P110" si="206">O100</f>
-        <v>0</v>
-      </c>
-      <c r="Q101" s="11">
-        <f t="shared" ref="Q101:Q110" si="207">P100</f>
-        <v>7773</v>
-      </c>
-      <c r="R101" s="11">
-        <f t="shared" ref="R101:R110" si="208">Q100</f>
-        <v>7714</v>
-      </c>
-      <c r="S101" s="11">
-        <f t="shared" ref="S101:S110" si="209">R100</f>
-        <v>9268</v>
-      </c>
-      <c r="T101" s="11">
-        <f t="shared" ref="T101:T110" si="210">S100</f>
-        <v>7674</v>
-      </c>
-      <c r="U101" s="11">
-        <f t="shared" ref="U101:U110" si="211">T100</f>
-        <v>8366</v>
-      </c>
-      <c r="V101" s="11">
-        <f t="shared" ref="V101:V110" si="212">U100</f>
-        <v>8270</v>
-      </c>
-      <c r="W101" s="11">
-        <f t="shared" ref="W101:W110" si="213">V100</f>
-        <v>7778</v>
-      </c>
-      <c r="X101" s="11">
-        <f t="shared" ref="X101:X110" si="214">W100</f>
-        <v>7141</v>
-      </c>
-      <c r="Y101" s="11">
-        <f t="shared" ref="Y101:Y110" si="215">X100</f>
-        <v>6637</v>
-      </c>
-      <c r="Z101" s="11">
-        <f t="shared" ref="Z101:Z110" si="216">Y100</f>
-        <v>6626</v>
-      </c>
-      <c r="AA101" s="11">
-        <f t="shared" ref="AA101:AA110" si="217">Z100</f>
-        <v>6266</v>
-      </c>
-      <c r="AC101" s="11">
-        <f t="shared" ref="AC101:AC110" si="218">AB100</f>
-        <v>0</v>
-      </c>
-      <c r="AD101" s="11">
-        <f t="shared" ref="AD101:AD110" si="219">AC100</f>
-        <v>1788</v>
-      </c>
-      <c r="AE101" s="11">
-        <f t="shared" ref="AE101:AE110" si="220">AD100</f>
-        <v>1674</v>
-      </c>
-      <c r="AF101" s="11">
-        <f t="shared" ref="AF101:AF110" si="221">AE100</f>
-        <v>2760</v>
-      </c>
-      <c r="AG101" s="11">
-        <f t="shared" ref="AG101:AG110" si="222">AF100</f>
-        <v>1166</v>
-      </c>
-      <c r="AH101" s="11">
-        <f t="shared" ref="AH101:AH110" si="223">AG100</f>
-        <v>1842</v>
-      </c>
-      <c r="AI101" s="11">
-        <f t="shared" ref="AI101:AI110" si="224">AH100</f>
-        <v>2044</v>
-      </c>
-      <c r="AJ101" s="11">
-        <f t="shared" ref="AJ101:AJ110" si="225">AI100</f>
-        <v>1961</v>
-      </c>
-      <c r="AK101" s="11">
-        <f t="shared" ref="AK101:AK110" si="226">AJ100</f>
-        <v>1814</v>
-      </c>
-      <c r="AL101" s="11">
-        <f t="shared" ref="AL101:AL110" si="227">AK100</f>
-        <v>1654</v>
-      </c>
-      <c r="AM101" s="11">
-        <f t="shared" ref="AM101:AM110" si="228">AL100</f>
-        <v>1952</v>
-      </c>
-      <c r="AN101" s="11">
-        <f t="shared" ref="AN101:AN110" si="229">AM100</f>
-        <v>1932</v>
-      </c>
-      <c r="AP101" s="11">
-        <f t="shared" ref="AP101:AP110" si="230">IF(CC101=1,P101-AD101,IF(CC101=2,P101-AE101,P101-AF101))</f>
-        <v>-2760</v>
-      </c>
-      <c r="AQ101" s="11">
-        <f t="shared" ref="AQ101:AQ110" si="231">IF(CD101=1,Q101-AE101,IF(CD101=2,Q101-AF101,Q101-AG101))</f>
-        <v>6607</v>
-      </c>
-      <c r="AR101" s="11">
-        <f t="shared" ref="AR101:AR110" si="232">IF(CE101=1,R101-AF101,IF(CE101=2,R101-AG101,R101-AH101))</f>
-        <v>5872</v>
-      </c>
-      <c r="AS101" s="11">
-        <f t="shared" ref="AS101:AS110" si="233">IF(CF101=1,S101-AG101,IF(CF101=2,S101-AH101,S101-AI101))</f>
-        <v>7224</v>
-      </c>
-      <c r="AT101" s="11">
-        <f t="shared" ref="AT101:AT110" si="234">IF(CG101=1,T101-AH101,IF(CG101=2,T101-AI101,T101-AJ101))</f>
-        <v>5713</v>
-      </c>
-      <c r="AU101" s="11">
-        <f t="shared" ref="AU101:AU110" si="235">IF(CH101=1,U101-AI101,IF(CH101=2,U101-AJ101,U101-AK101))</f>
-        <v>6552</v>
-      </c>
-      <c r="AV101" s="11">
-        <f t="shared" ref="AV101:AV110" si="236">IF(CI101=1,V101-AJ101,IF(CI101=2,V101-AK101,V101-AL101))</f>
-        <v>6616</v>
-      </c>
-      <c r="AW101" s="11">
-        <f t="shared" ref="AW101:AW110" si="237">IF(CJ101=1,W101-AK101,IF(CJ101=2,W101-AL101,W101-AM101))</f>
-        <v>5826</v>
-      </c>
-      <c r="AX101" s="11">
-        <f t="shared" ref="AX101:AX110" si="238">IF(CK101=1,X101-AL101,IF(CK101=2,X101-AM101,X101-AN101))</f>
-        <v>5209</v>
-      </c>
-      <c r="AY101" s="11">
-        <f t="shared" ref="AY101:AY110" si="239">IF(CL101=1,Y101-AM101,IF(CL101=2,Y101-AN101,Y101-AO101))</f>
-        <v>6637</v>
-      </c>
-      <c r="AZ101" s="11">
-        <f t="shared" ref="AZ101:AZ110" si="240">IF(CM101=1,Z101-AN101,IF(CM101=2,Z101-AO101,Z101-AP101))</f>
-        <v>9386</v>
-      </c>
-      <c r="BA101" s="11">
-        <f t="shared" ref="BA101:BA110" si="241">IF(CN101=1,AA101-AO101,IF(CN101=2,AA101-AP101,AA101-AQ101))</f>
-        <v>-341</v>
-      </c>
-      <c r="BC101" s="11">
-        <f t="shared" ref="BC101:BC110" si="242">BB100</f>
-        <v>0</v>
-      </c>
-      <c r="BD101" s="11">
-        <f t="shared" ref="BD101:BD110" si="243">BC100</f>
-        <v>125299</v>
-      </c>
-      <c r="BE101" s="11">
-        <f t="shared" ref="BE101:BE110" si="244">BD100</f>
-        <v>125222</v>
-      </c>
-      <c r="BF101" s="11">
-        <f t="shared" ref="BF101:BF110" si="245">BE100</f>
-        <v>124827</v>
-      </c>
-      <c r="BG101" s="11">
-        <f t="shared" ref="BG101:BG110" si="246">BF100</f>
-        <v>125408</v>
-      </c>
-      <c r="BH101" s="11">
-        <f t="shared" ref="BH101:BH110" si="247">BG100</f>
-        <v>125341</v>
-      </c>
-      <c r="BI101" s="11">
-        <f t="shared" ref="BI101:BI110" si="248">BH100</f>
-        <v>127614</v>
-      </c>
-      <c r="BJ101" s="11">
-        <f t="shared" ref="BJ101:BJ110" si="249">BI100</f>
-        <v>129070</v>
-      </c>
-      <c r="BK101" s="11">
-        <f t="shared" ref="BK101:BK110" si="250">BJ100</f>
-        <v>130789</v>
-      </c>
-      <c r="BL101" s="11">
-        <f t="shared" ref="BL101:BL110" si="251">BK100</f>
-        <v>131451</v>
-      </c>
-      <c r="BM101" s="11">
-        <f t="shared" ref="BM101:BM110" si="252">BL100</f>
-        <v>131416</v>
-      </c>
-      <c r="BN101" s="11">
-        <f t="shared" ref="BN101:BN110" si="253">BM100</f>
-        <v>132193</v>
-      </c>
-      <c r="BP101" s="11">
-        <f t="shared" ref="BP101:BP110" si="254">BO100</f>
-        <v>0</v>
-      </c>
-      <c r="BQ101" s="11">
-        <f t="shared" ref="BQ101:BQ110" si="255">BP100</f>
-        <v>50</v>
-      </c>
-      <c r="BR101" s="11">
-        <f t="shared" ref="BR101:BR110" si="256">BQ100</f>
-        <v>54</v>
-      </c>
-      <c r="BS101" s="11">
-        <f t="shared" ref="BS101:BS110" si="257">BR100</f>
-        <v>59</v>
-      </c>
-      <c r="BT101" s="11">
-        <f t="shared" ref="BT101:BT110" si="258">BS100</f>
-        <v>55</v>
-      </c>
-      <c r="BU101" s="11">
-        <f t="shared" ref="BU101:BU110" si="259">BT100</f>
-        <v>60</v>
-      </c>
-      <c r="BV101" s="11">
-        <f t="shared" ref="BV101:BV110" si="260">BU100</f>
-        <v>64</v>
-      </c>
-      <c r="BW101" s="11">
-        <f t="shared" ref="BW101:BW110" si="261">BV100</f>
-        <v>65</v>
-      </c>
-      <c r="BX101" s="11">
-        <f t="shared" ref="BX101:BX110" si="262">BW100</f>
-        <v>70</v>
-      </c>
-      <c r="BY101" s="11">
-        <f t="shared" ref="BY101:BY110" si="263">BX100</f>
-        <v>69</v>
-      </c>
-      <c r="BZ101" s="11">
-        <f t="shared" ref="BZ101:BZ110" si="264">BY100</f>
-        <v>85</v>
-      </c>
-      <c r="CA101" s="11">
-        <f t="shared" ref="CA101:CA110" si="265">BZ100</f>
-        <v>79</v>
-      </c>
-      <c r="CB101" s="11">
-        <f t="shared" ref="CB101:CB110" si="266">IF(CD101&gt;105,4,IF(CD101&gt;75,3,IF(CD101&lt;45,1,2)))</f>
-        <v>1</v>
-      </c>
-      <c r="CD101" s="11">
-        <f t="shared" ref="CD101:CD110" si="267">CC100</f>
-        <v>0</v>
-      </c>
-      <c r="CE101" s="11">
-        <f t="shared" ref="CE101:CE110" si="268">CD100</f>
-        <v>120</v>
-      </c>
-      <c r="CF101" s="11">
-        <f t="shared" ref="CF101:CF110" si="269">CE100</f>
-        <v>96</v>
-      </c>
-      <c r="CG101" s="11">
-        <f t="shared" ref="CG101:CG110" si="270">CF100</f>
-        <v>93</v>
-      </c>
-      <c r="CH101" s="11">
-        <f t="shared" ref="CH101:CH110" si="271">CG100</f>
-        <v>88</v>
-      </c>
-      <c r="CI101" s="11">
-        <f t="shared" ref="CI101:CI110" si="272">CH100</f>
-        <v>75</v>
-      </c>
-      <c r="CJ101" s="11">
-        <f t="shared" ref="CJ101:CJ110" si="273">CI100</f>
-        <v>80</v>
-      </c>
-      <c r="CK101" s="11">
-        <f t="shared" ref="CK101:CK110" si="274">CJ100</f>
-        <v>71</v>
-      </c>
-      <c r="CL101" s="11">
-        <f t="shared" ref="CL101:CL110" si="275">CK100</f>
-        <v>67</v>
-      </c>
-      <c r="CM101" s="11">
-        <f t="shared" ref="CM101:CM110" si="276">CL100</f>
-        <v>68</v>
-      </c>
-      <c r="CN101" s="11">
-        <f t="shared" ref="CN101:CN110" si="277">CM100</f>
-        <v>66</v>
-      </c>
-      <c r="CO101" s="11">
-        <f t="shared" ref="CO101:CO110" si="278">CN100</f>
-        <v>60</v>
-      </c>
-      <c r="CP101" s="11">
-        <v>99</v>
-      </c>
+      <c r="B101" s="12"/>
+      <c r="P101" s="12"/>
       <c r="CR101"/>
     </row>
     <row r="102" spans="1:96" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="11">
-        <v>202306</v>
-      </c>
-      <c r="B102" s="12">
-        <v>700</v>
-      </c>
-      <c r="C102" s="11">
-        <v>700</v>
-      </c>
-      <c r="D102" s="11">
-        <v>700</v>
-      </c>
-      <c r="E102" s="11">
-        <v>700</v>
-      </c>
-      <c r="F102" s="11">
-        <v>700</v>
-      </c>
-      <c r="G102" s="11">
-        <v>700</v>
-      </c>
-      <c r="H102" s="11">
-        <v>575</v>
-      </c>
-      <c r="I102" s="11">
-        <v>500</v>
-      </c>
-      <c r="J102" s="11">
-        <v>450</v>
-      </c>
-      <c r="K102" s="11">
-        <v>450</v>
-      </c>
-      <c r="L102" s="11">
-        <v>375</v>
-      </c>
-      <c r="M102" s="11">
-        <v>375</v>
-      </c>
-      <c r="N102" s="11">
-        <v>275</v>
-      </c>
-      <c r="P102" s="12">
-        <f t="shared" si="206"/>
-        <v>0</v>
-      </c>
-      <c r="Q102" s="11">
-        <f t="shared" si="207"/>
-        <v>0</v>
-      </c>
-      <c r="R102" s="11">
-        <f t="shared" si="208"/>
-        <v>7773</v>
-      </c>
-      <c r="S102" s="11">
-        <f t="shared" si="209"/>
-        <v>7714</v>
-      </c>
-      <c r="T102" s="11">
-        <f t="shared" si="210"/>
-        <v>9268</v>
-      </c>
-      <c r="U102" s="11">
-        <f t="shared" si="211"/>
-        <v>7674</v>
-      </c>
-      <c r="V102" s="11">
-        <f t="shared" si="212"/>
-        <v>8366</v>
-      </c>
-      <c r="W102" s="11">
-        <f t="shared" si="213"/>
-        <v>8270</v>
-      </c>
-      <c r="X102" s="11">
-        <f t="shared" si="214"/>
-        <v>7778</v>
-      </c>
-      <c r="Y102" s="11">
-        <f t="shared" si="215"/>
-        <v>7141</v>
-      </c>
-      <c r="Z102" s="11">
-        <f t="shared" si="216"/>
-        <v>6637</v>
-      </c>
-      <c r="AA102" s="11">
-        <f t="shared" si="217"/>
-        <v>6626</v>
-      </c>
-      <c r="AC102" s="11">
-        <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="AD102" s="11">
-        <f t="shared" si="219"/>
-        <v>0</v>
-      </c>
-      <c r="AE102" s="11">
-        <f t="shared" si="220"/>
-        <v>1788</v>
-      </c>
-      <c r="AF102" s="11">
-        <f t="shared" si="221"/>
-        <v>1674</v>
-      </c>
-      <c r="AG102" s="11">
-        <f t="shared" si="222"/>
-        <v>2760</v>
-      </c>
-      <c r="AH102" s="11">
-        <f t="shared" si="223"/>
-        <v>1166</v>
-      </c>
-      <c r="AI102" s="11">
-        <f t="shared" si="224"/>
-        <v>1842</v>
-      </c>
-      <c r="AJ102" s="11">
-        <f t="shared" si="225"/>
-        <v>2044</v>
-      </c>
-      <c r="AK102" s="11">
-        <f t="shared" si="226"/>
-        <v>1961</v>
-      </c>
-      <c r="AL102" s="11">
-        <f t="shared" si="227"/>
-        <v>1814</v>
-      </c>
-      <c r="AM102" s="11">
-        <f t="shared" si="228"/>
-        <v>1654</v>
-      </c>
-      <c r="AN102" s="11">
-        <f t="shared" si="229"/>
-        <v>1952</v>
-      </c>
-      <c r="AP102" s="11">
-        <f t="shared" si="230"/>
-        <v>-1674</v>
-      </c>
-      <c r="AQ102" s="11">
-        <f t="shared" si="231"/>
-        <v>-2760</v>
-      </c>
-      <c r="AR102" s="11">
-        <f t="shared" si="232"/>
-        <v>6607</v>
-      </c>
-      <c r="AS102" s="11">
-        <f t="shared" si="233"/>
-        <v>5872</v>
-      </c>
-      <c r="AT102" s="11">
-        <f t="shared" si="234"/>
-        <v>7224</v>
-      </c>
-      <c r="AU102" s="11">
-        <f t="shared" si="235"/>
-        <v>5713</v>
-      </c>
-      <c r="AV102" s="11">
-        <f t="shared" si="236"/>
-        <v>6552</v>
-      </c>
-      <c r="AW102" s="11">
-        <f t="shared" si="237"/>
-        <v>6616</v>
-      </c>
-      <c r="AX102" s="11">
-        <f t="shared" si="238"/>
-        <v>5826</v>
-      </c>
-      <c r="AY102" s="11">
-        <f t="shared" si="239"/>
-        <v>7141</v>
-      </c>
-      <c r="AZ102" s="11">
-        <f t="shared" si="240"/>
-        <v>8311</v>
-      </c>
-      <c r="BA102" s="11">
-        <f t="shared" si="241"/>
-        <v>9386</v>
-      </c>
-      <c r="BC102" s="11">
-        <f t="shared" si="242"/>
-        <v>0</v>
-      </c>
-      <c r="BD102" s="11">
-        <f t="shared" si="243"/>
-        <v>0</v>
-      </c>
-      <c r="BE102" s="11">
-        <f t="shared" si="244"/>
-        <v>125299</v>
-      </c>
-      <c r="BF102" s="11">
-        <f t="shared" si="245"/>
-        <v>125222</v>
-      </c>
-      <c r="BG102" s="11">
-        <f t="shared" si="246"/>
-        <v>124827</v>
-      </c>
-      <c r="BH102" s="11">
-        <f t="shared" si="247"/>
-        <v>125408</v>
-      </c>
-      <c r="BI102" s="11">
-        <f t="shared" si="248"/>
-        <v>125341</v>
-      </c>
-      <c r="BJ102" s="11">
-        <f t="shared" si="249"/>
-        <v>127614</v>
-      </c>
-      <c r="BK102" s="11">
-        <f t="shared" si="250"/>
-        <v>129070</v>
-      </c>
-      <c r="BL102" s="11">
-        <f t="shared" si="251"/>
-        <v>130789</v>
-      </c>
-      <c r="BM102" s="11">
-        <f t="shared" si="252"/>
-        <v>131451</v>
-      </c>
-      <c r="BN102" s="11">
-        <f t="shared" si="253"/>
-        <v>131416</v>
-      </c>
-      <c r="BP102" s="11">
-        <f t="shared" si="254"/>
-        <v>0</v>
-      </c>
-      <c r="BQ102" s="11">
-        <f t="shared" si="255"/>
-        <v>0</v>
-      </c>
-      <c r="BR102" s="11">
-        <f t="shared" si="256"/>
-        <v>50</v>
-      </c>
-      <c r="BS102" s="11">
-        <f t="shared" si="257"/>
-        <v>54</v>
-      </c>
-      <c r="BT102" s="11">
-        <f t="shared" si="258"/>
-        <v>59</v>
-      </c>
-      <c r="BU102" s="11">
-        <f t="shared" si="259"/>
-        <v>55</v>
-      </c>
-      <c r="BV102" s="11">
-        <f t="shared" si="260"/>
-        <v>60</v>
-      </c>
-      <c r="BW102" s="11">
-        <f t="shared" si="261"/>
-        <v>64</v>
-      </c>
-      <c r="BX102" s="11">
-        <f t="shared" si="262"/>
-        <v>65</v>
-      </c>
-      <c r="BY102" s="11">
-        <f t="shared" si="263"/>
-        <v>70</v>
-      </c>
-      <c r="BZ102" s="11">
-        <f t="shared" si="264"/>
-        <v>69</v>
-      </c>
-      <c r="CA102" s="11">
-        <f t="shared" si="265"/>
-        <v>85</v>
-      </c>
-      <c r="CB102" s="11">
-        <f t="shared" si="266"/>
-        <v>1</v>
-      </c>
-      <c r="CD102" s="11">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="CE102" s="11">
-        <f t="shared" si="268"/>
-        <v>0</v>
-      </c>
-      <c r="CF102" s="11">
-        <f t="shared" si="269"/>
-        <v>120</v>
-      </c>
-      <c r="CG102" s="11">
-        <f t="shared" si="270"/>
-        <v>96</v>
-      </c>
-      <c r="CH102" s="11">
-        <f t="shared" si="271"/>
-        <v>93</v>
-      </c>
-      <c r="CI102" s="11">
-        <f t="shared" si="272"/>
-        <v>88</v>
-      </c>
-      <c r="CJ102" s="11">
-        <f t="shared" si="273"/>
-        <v>75</v>
-      </c>
-      <c r="CK102" s="11">
-        <f t="shared" si="274"/>
-        <v>80</v>
-      </c>
-      <c r="CL102" s="11">
-        <f t="shared" si="275"/>
-        <v>71</v>
-      </c>
-      <c r="CM102" s="11">
-        <f t="shared" si="276"/>
-        <v>67</v>
-      </c>
-      <c r="CN102" s="11">
-        <f t="shared" si="277"/>
-        <v>68</v>
-      </c>
-      <c r="CO102" s="11">
-        <f t="shared" si="278"/>
-        <v>66</v>
-      </c>
-      <c r="CP102" s="11">
-        <v>100</v>
-      </c>
+      <c r="B102" s="12"/>
+      <c r="P102" s="12"/>
       <c r="CR102"/>
     </row>
     <row r="103" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>202307</v>
-      </c>
-      <c r="B103" s="3">
-        <v>700</v>
-      </c>
-      <c r="C103" s="1">
-        <v>700</v>
-      </c>
-      <c r="D103" s="1">
-        <v>700</v>
-      </c>
-      <c r="E103" s="1">
-        <v>700</v>
-      </c>
-      <c r="F103" s="1">
-        <v>700</v>
-      </c>
-      <c r="G103" s="1">
-        <v>700</v>
-      </c>
-      <c r="H103" s="1">
-        <v>575</v>
-      </c>
-      <c r="I103" s="1">
-        <v>500</v>
-      </c>
-      <c r="J103" s="1">
-        <v>450</v>
-      </c>
-      <c r="K103" s="1">
-        <v>450</v>
-      </c>
-      <c r="L103" s="1">
-        <v>375</v>
-      </c>
-      <c r="M103" s="1">
-        <v>375</v>
-      </c>
-      <c r="N103" s="1">
-        <v>275</v>
-      </c>
-      <c r="P103" s="3">
-        <f t="shared" si="206"/>
-        <v>0</v>
-      </c>
-      <c r="Q103" s="1">
-        <f t="shared" si="207"/>
-        <v>0</v>
-      </c>
-      <c r="R103" s="1">
-        <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="S103" s="1">
-        <f t="shared" si="209"/>
-        <v>7773</v>
-      </c>
-      <c r="T103" s="1">
-        <f t="shared" si="210"/>
-        <v>7714</v>
-      </c>
-      <c r="U103" s="1">
-        <f t="shared" si="211"/>
-        <v>9268</v>
-      </c>
-      <c r="V103" s="1">
-        <f t="shared" si="212"/>
-        <v>7674</v>
-      </c>
-      <c r="W103" s="1">
-        <f t="shared" si="213"/>
-        <v>8366</v>
-      </c>
-      <c r="X103" s="1">
-        <f t="shared" si="214"/>
-        <v>8270</v>
-      </c>
-      <c r="Y103" s="1">
-        <f t="shared" si="215"/>
-        <v>7778</v>
-      </c>
-      <c r="Z103" s="1">
-        <f t="shared" si="216"/>
-        <v>7141</v>
-      </c>
-      <c r="AA103" s="1">
-        <f t="shared" si="217"/>
-        <v>6637</v>
-      </c>
-      <c r="AC103" s="1">
-        <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="AD103" s="1">
-        <f t="shared" si="219"/>
-        <v>0</v>
-      </c>
-      <c r="AE103" s="1">
-        <f t="shared" si="220"/>
-        <v>0</v>
-      </c>
-      <c r="AF103" s="1">
-        <f t="shared" si="221"/>
-        <v>1788</v>
-      </c>
-      <c r="AG103" s="1">
-        <f t="shared" si="222"/>
-        <v>1674</v>
-      </c>
-      <c r="AH103" s="1">
-        <f t="shared" si="223"/>
-        <v>2760</v>
-      </c>
-      <c r="AI103" s="1">
-        <f t="shared" si="224"/>
-        <v>1166</v>
-      </c>
-      <c r="AJ103" s="1">
-        <f t="shared" si="225"/>
-        <v>1842</v>
-      </c>
-      <c r="AK103" s="1">
-        <f t="shared" si="226"/>
-        <v>2044</v>
-      </c>
-      <c r="AL103" s="1">
-        <f t="shared" si="227"/>
-        <v>1961</v>
-      </c>
-      <c r="AM103" s="1">
-        <f t="shared" si="228"/>
-        <v>1814</v>
-      </c>
-      <c r="AN103" s="1">
-        <f t="shared" si="229"/>
-        <v>1654</v>
-      </c>
-      <c r="AP103" s="1">
-        <f t="shared" si="230"/>
-        <v>-1788</v>
-      </c>
-      <c r="AQ103" s="1">
-        <f t="shared" si="231"/>
-        <v>-1674</v>
-      </c>
-      <c r="AR103" s="1">
-        <f t="shared" si="232"/>
-        <v>-2760</v>
-      </c>
-      <c r="AS103" s="1">
-        <f t="shared" si="233"/>
-        <v>6607</v>
-      </c>
-      <c r="AT103" s="1">
-        <f t="shared" si="234"/>
-        <v>5872</v>
-      </c>
-      <c r="AU103" s="1">
-        <f t="shared" si="235"/>
-        <v>7224</v>
-      </c>
-      <c r="AV103" s="1">
-        <f t="shared" si="236"/>
-        <v>5713</v>
-      </c>
-      <c r="AW103" s="1">
-        <f t="shared" si="237"/>
-        <v>6552</v>
-      </c>
-      <c r="AX103" s="1">
-        <f t="shared" si="238"/>
-        <v>6616</v>
-      </c>
-      <c r="AY103" s="1">
-        <f t="shared" si="239"/>
-        <v>7778</v>
-      </c>
-      <c r="AZ103" s="1">
-        <f t="shared" si="240"/>
-        <v>8929</v>
-      </c>
-      <c r="BA103" s="1">
-        <f t="shared" si="241"/>
-        <v>8311</v>
-      </c>
-      <c r="BC103" s="1">
-        <f t="shared" si="242"/>
-        <v>0</v>
-      </c>
-      <c r="BD103" s="1">
-        <f t="shared" si="243"/>
-        <v>0</v>
-      </c>
-      <c r="BE103" s="1">
-        <f t="shared" si="244"/>
-        <v>0</v>
-      </c>
-      <c r="BF103" s="1">
-        <f t="shared" si="245"/>
-        <v>125299</v>
-      </c>
-      <c r="BG103" s="1">
-        <f t="shared" si="246"/>
-        <v>125222</v>
-      </c>
-      <c r="BH103" s="1">
-        <f t="shared" si="247"/>
-        <v>124827</v>
-      </c>
-      <c r="BI103" s="1">
-        <f t="shared" si="248"/>
-        <v>125408</v>
-      </c>
-      <c r="BJ103" s="1">
-        <f t="shared" si="249"/>
-        <v>125341</v>
-      </c>
-      <c r="BK103" s="1">
-        <f t="shared" si="250"/>
-        <v>127614</v>
-      </c>
-      <c r="BL103" s="1">
-        <f t="shared" si="251"/>
-        <v>129070</v>
-      </c>
-      <c r="BM103" s="1">
-        <f t="shared" si="252"/>
-        <v>130789</v>
-      </c>
-      <c r="BN103" s="1">
-        <f t="shared" si="253"/>
-        <v>131451</v>
-      </c>
-      <c r="BP103" s="1">
-        <f t="shared" si="254"/>
-        <v>0</v>
-      </c>
-      <c r="BQ103" s="1">
-        <f t="shared" si="255"/>
-        <v>0</v>
-      </c>
-      <c r="BR103" s="1">
-        <f t="shared" si="256"/>
-        <v>0</v>
-      </c>
-      <c r="BS103" s="1">
-        <f t="shared" si="257"/>
-        <v>50</v>
-      </c>
-      <c r="BT103" s="1">
-        <f t="shared" si="258"/>
-        <v>54</v>
-      </c>
-      <c r="BU103" s="1">
-        <f t="shared" si="259"/>
-        <v>59</v>
-      </c>
-      <c r="BV103" s="1">
-        <f t="shared" si="260"/>
-        <v>55</v>
-      </c>
-      <c r="BW103" s="1">
-        <f t="shared" si="261"/>
-        <v>60</v>
-      </c>
-      <c r="BX103" s="1">
-        <f t="shared" si="262"/>
-        <v>64</v>
-      </c>
-      <c r="BY103" s="1">
-        <f t="shared" si="263"/>
-        <v>65</v>
-      </c>
-      <c r="BZ103" s="1">
-        <f t="shared" si="264"/>
-        <v>70</v>
-      </c>
-      <c r="CA103" s="1">
-        <f t="shared" si="265"/>
-        <v>69</v>
-      </c>
-      <c r="CB103" s="1">
-        <f t="shared" si="266"/>
-        <v>1</v>
-      </c>
-      <c r="CD103" s="1">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="CE103" s="1">
-        <f t="shared" si="268"/>
-        <v>0</v>
-      </c>
-      <c r="CF103" s="1">
-        <f t="shared" si="269"/>
-        <v>0</v>
-      </c>
-      <c r="CG103" s="1">
-        <f t="shared" si="270"/>
-        <v>120</v>
-      </c>
-      <c r="CH103" s="1">
-        <f t="shared" si="271"/>
-        <v>96</v>
-      </c>
-      <c r="CI103" s="1">
-        <f t="shared" si="272"/>
-        <v>93</v>
-      </c>
-      <c r="CJ103" s="1">
-        <f t="shared" si="273"/>
-        <v>88</v>
-      </c>
-      <c r="CK103" s="1">
-        <f t="shared" si="274"/>
-        <v>75</v>
-      </c>
-      <c r="CL103" s="1">
-        <f t="shared" si="275"/>
-        <v>80</v>
-      </c>
-      <c r="CM103" s="1">
-        <f t="shared" si="276"/>
-        <v>71</v>
-      </c>
-      <c r="CN103" s="1">
-        <f t="shared" si="277"/>
-        <v>67</v>
-      </c>
-      <c r="CO103" s="1">
-        <f t="shared" si="278"/>
-        <v>68</v>
-      </c>
-      <c r="CP103" s="1">
-        <v>101</v>
-      </c>
+      <c r="B103" s="3"/>
+      <c r="P103" s="3"/>
     </row>
     <row r="104" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>202308</v>
-      </c>
-      <c r="B104" s="3">
-        <v>700</v>
-      </c>
-      <c r="C104" s="1">
-        <v>700</v>
-      </c>
-      <c r="D104" s="1">
-        <v>700</v>
-      </c>
-      <c r="E104" s="1">
-        <v>700</v>
-      </c>
-      <c r="F104" s="1">
-        <v>700</v>
-      </c>
-      <c r="G104" s="1">
-        <v>700</v>
-      </c>
-      <c r="H104" s="1">
-        <v>575</v>
-      </c>
-      <c r="I104" s="1">
-        <v>500</v>
-      </c>
-      <c r="J104" s="1">
-        <v>450</v>
-      </c>
-      <c r="K104" s="1">
-        <v>450</v>
-      </c>
-      <c r="L104" s="1">
-        <v>375</v>
-      </c>
-      <c r="M104" s="1">
-        <v>375</v>
-      </c>
-      <c r="N104" s="1">
-        <v>275</v>
-      </c>
-      <c r="P104" s="3">
-        <f t="shared" si="206"/>
-        <v>0</v>
-      </c>
-      <c r="Q104" s="1">
-        <f t="shared" si="207"/>
-        <v>0</v>
-      </c>
-      <c r="R104" s="1">
-        <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="S104" s="1">
-        <f t="shared" si="209"/>
-        <v>0</v>
-      </c>
-      <c r="T104" s="1">
-        <f t="shared" si="210"/>
-        <v>7773</v>
-      </c>
-      <c r="U104" s="1">
-        <f t="shared" si="211"/>
-        <v>7714</v>
-      </c>
-      <c r="V104" s="1">
-        <f t="shared" si="212"/>
-        <v>9268</v>
-      </c>
-      <c r="W104" s="1">
-        <f t="shared" si="213"/>
-        <v>7674</v>
-      </c>
-      <c r="X104" s="1">
-        <f t="shared" si="214"/>
-        <v>8366</v>
-      </c>
-      <c r="Y104" s="1">
-        <f t="shared" si="215"/>
-        <v>8270</v>
-      </c>
-      <c r="Z104" s="1">
-        <f t="shared" si="216"/>
-        <v>7778</v>
-      </c>
-      <c r="AA104" s="1">
-        <f t="shared" si="217"/>
-        <v>7141</v>
-      </c>
-      <c r="AC104" s="1">
-        <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="AD104" s="1">
-        <f t="shared" si="219"/>
-        <v>0</v>
-      </c>
-      <c r="AE104" s="1">
-        <f t="shared" si="220"/>
-        <v>0</v>
-      </c>
-      <c r="AF104" s="1">
-        <f t="shared" si="221"/>
-        <v>0</v>
-      </c>
-      <c r="AG104" s="1">
-        <f t="shared" si="222"/>
-        <v>1788</v>
-      </c>
-      <c r="AH104" s="1">
-        <f t="shared" si="223"/>
-        <v>1674</v>
-      </c>
-      <c r="AI104" s="1">
-        <f t="shared" si="224"/>
-        <v>2760</v>
-      </c>
-      <c r="AJ104" s="1">
-        <f t="shared" si="225"/>
-        <v>1166</v>
-      </c>
-      <c r="AK104" s="1">
-        <f t="shared" si="226"/>
-        <v>1842</v>
-      </c>
-      <c r="AL104" s="1">
-        <f t="shared" si="227"/>
-        <v>2044</v>
-      </c>
-      <c r="AM104" s="1">
-        <f t="shared" si="228"/>
-        <v>1961</v>
-      </c>
-      <c r="AN104" s="1">
-        <f t="shared" si="229"/>
-        <v>1814</v>
-      </c>
-      <c r="AP104" s="1">
-        <f t="shared" si="230"/>
-        <v>0</v>
-      </c>
-      <c r="AQ104" s="1">
-        <f t="shared" si="231"/>
-        <v>-1788</v>
-      </c>
-      <c r="AR104" s="1">
-        <f t="shared" si="232"/>
-        <v>-1674</v>
-      </c>
-      <c r="AS104" s="1">
-        <f t="shared" si="233"/>
-        <v>-2760</v>
-      </c>
-      <c r="AT104" s="1">
-        <f t="shared" si="234"/>
-        <v>6607</v>
-      </c>
-      <c r="AU104" s="1">
-        <f t="shared" si="235"/>
-        <v>5872</v>
-      </c>
-      <c r="AV104" s="1">
-        <f t="shared" si="236"/>
-        <v>7224</v>
-      </c>
-      <c r="AW104" s="1">
-        <f t="shared" si="237"/>
-        <v>5713</v>
-      </c>
-      <c r="AX104" s="1">
-        <f t="shared" si="238"/>
-        <v>6552</v>
-      </c>
-      <c r="AY104" s="1">
-        <f t="shared" si="239"/>
-        <v>8270</v>
-      </c>
-      <c r="AZ104" s="1">
-        <f t="shared" si="240"/>
-        <v>7778</v>
-      </c>
-      <c r="BA104" s="1">
-        <f t="shared" si="241"/>
-        <v>8929</v>
-      </c>
-      <c r="BC104" s="1">
-        <f t="shared" si="242"/>
-        <v>0</v>
-      </c>
-      <c r="BD104" s="1">
-        <f t="shared" si="243"/>
-        <v>0</v>
-      </c>
-      <c r="BE104" s="1">
-        <f t="shared" si="244"/>
-        <v>0</v>
-      </c>
-      <c r="BF104" s="1">
-        <f t="shared" si="245"/>
-        <v>0</v>
-      </c>
-      <c r="BG104" s="1">
-        <f t="shared" si="246"/>
-        <v>125299</v>
-      </c>
-      <c r="BH104" s="1">
-        <f t="shared" si="247"/>
-        <v>125222</v>
-      </c>
-      <c r="BI104" s="1">
-        <f t="shared" si="248"/>
-        <v>124827</v>
-      </c>
-      <c r="BJ104" s="1">
-        <f t="shared" si="249"/>
-        <v>125408</v>
-      </c>
-      <c r="BK104" s="1">
-        <f t="shared" si="250"/>
-        <v>125341</v>
-      </c>
-      <c r="BL104" s="1">
-        <f t="shared" si="251"/>
-        <v>127614</v>
-      </c>
-      <c r="BM104" s="1">
-        <f t="shared" si="252"/>
-        <v>129070</v>
-      </c>
-      <c r="BN104" s="1">
-        <f t="shared" si="253"/>
-        <v>130789</v>
-      </c>
-      <c r="BP104" s="1">
-        <f t="shared" si="254"/>
-        <v>0</v>
-      </c>
-      <c r="BQ104" s="1">
-        <f t="shared" si="255"/>
-        <v>0</v>
-      </c>
-      <c r="BR104" s="1">
-        <f t="shared" si="256"/>
-        <v>0</v>
-      </c>
-      <c r="BS104" s="1">
-        <f t="shared" si="257"/>
-        <v>0</v>
-      </c>
-      <c r="BT104" s="1">
-        <f t="shared" si="258"/>
-        <v>50</v>
-      </c>
-      <c r="BU104" s="1">
-        <f t="shared" si="259"/>
-        <v>54</v>
-      </c>
-      <c r="BV104" s="1">
-        <f t="shared" si="260"/>
-        <v>59</v>
-      </c>
-      <c r="BW104" s="1">
-        <f t="shared" si="261"/>
-        <v>55</v>
-      </c>
-      <c r="BX104" s="1">
-        <f t="shared" si="262"/>
-        <v>60</v>
-      </c>
-      <c r="BY104" s="1">
-        <f t="shared" si="263"/>
-        <v>64</v>
-      </c>
-      <c r="BZ104" s="1">
-        <f t="shared" si="264"/>
-        <v>65</v>
-      </c>
-      <c r="CA104" s="1">
-        <f t="shared" si="265"/>
-        <v>70</v>
-      </c>
-      <c r="CB104" s="1">
-        <f t="shared" si="266"/>
-        <v>1</v>
-      </c>
-      <c r="CD104" s="1">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="CE104" s="1">
-        <f t="shared" si="268"/>
-        <v>0</v>
-      </c>
-      <c r="CF104" s="1">
-        <f t="shared" si="269"/>
-        <v>0</v>
-      </c>
-      <c r="CG104" s="1">
-        <f t="shared" si="270"/>
-        <v>0</v>
-      </c>
-      <c r="CH104" s="1">
-        <f t="shared" si="271"/>
-        <v>120</v>
-      </c>
-      <c r="CI104" s="1">
-        <f t="shared" si="272"/>
-        <v>96</v>
-      </c>
-      <c r="CJ104" s="1">
-        <f t="shared" si="273"/>
-        <v>93</v>
-      </c>
-      <c r="CK104" s="1">
-        <f t="shared" si="274"/>
-        <v>88</v>
-      </c>
-      <c r="CL104" s="1">
-        <f t="shared" si="275"/>
-        <v>75</v>
-      </c>
-      <c r="CM104" s="1">
-        <f t="shared" si="276"/>
-        <v>80</v>
-      </c>
-      <c r="CN104" s="1">
-        <f t="shared" si="277"/>
-        <v>71</v>
-      </c>
-      <c r="CO104" s="1">
-        <f t="shared" si="278"/>
-        <v>67</v>
-      </c>
-      <c r="CP104" s="1">
-        <v>102</v>
-      </c>
+      <c r="B104" s="3"/>
+      <c r="P104" s="3"/>
     </row>
     <row r="105" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>202309</v>
-      </c>
-      <c r="B105" s="3">
-        <v>700</v>
-      </c>
-      <c r="C105" s="1">
-        <v>700</v>
-      </c>
-      <c r="D105" s="1">
-        <v>700</v>
-      </c>
-      <c r="E105" s="1">
-        <v>700</v>
-      </c>
-      <c r="F105" s="1">
-        <v>700</v>
-      </c>
-      <c r="G105" s="1">
-        <v>700</v>
-      </c>
-      <c r="H105" s="1">
-        <v>575</v>
-      </c>
-      <c r="I105" s="1">
-        <v>500</v>
-      </c>
-      <c r="J105" s="1">
-        <v>450</v>
-      </c>
-      <c r="K105" s="1">
-        <v>450</v>
-      </c>
-      <c r="L105" s="1">
-        <v>375</v>
-      </c>
-      <c r="M105" s="1">
-        <v>375</v>
-      </c>
-      <c r="N105" s="1">
-        <v>275</v>
-      </c>
-      <c r="P105" s="3">
-        <f t="shared" si="206"/>
-        <v>0</v>
-      </c>
-      <c r="Q105" s="1">
-        <f t="shared" si="207"/>
-        <v>0</v>
-      </c>
-      <c r="R105" s="1">
-        <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="S105" s="1">
-        <f t="shared" si="209"/>
-        <v>0</v>
-      </c>
-      <c r="T105" s="1">
-        <f t="shared" si="210"/>
-        <v>0</v>
-      </c>
-      <c r="U105" s="1">
-        <f t="shared" si="211"/>
-        <v>7773</v>
-      </c>
-      <c r="V105" s="1">
-        <f t="shared" si="212"/>
-        <v>7714</v>
-      </c>
-      <c r="W105" s="1">
-        <f t="shared" si="213"/>
-        <v>9268</v>
-      </c>
-      <c r="X105" s="1">
-        <f t="shared" si="214"/>
-        <v>7674</v>
-      </c>
-      <c r="Y105" s="1">
-        <f t="shared" si="215"/>
-        <v>8366</v>
-      </c>
-      <c r="Z105" s="1">
-        <f t="shared" si="216"/>
-        <v>8270</v>
-      </c>
-      <c r="AA105" s="1">
-        <f t="shared" si="217"/>
-        <v>7778</v>
-      </c>
-      <c r="AC105" s="1">
-        <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="AD105" s="1">
-        <f t="shared" si="219"/>
-        <v>0</v>
-      </c>
-      <c r="AE105" s="1">
-        <f t="shared" si="220"/>
-        <v>0</v>
-      </c>
-      <c r="AF105" s="1">
-        <f t="shared" si="221"/>
-        <v>0</v>
-      </c>
-      <c r="AG105" s="1">
-        <f t="shared" si="222"/>
-        <v>0</v>
-      </c>
-      <c r="AH105" s="1">
-        <f t="shared" si="223"/>
-        <v>1788</v>
-      </c>
-      <c r="AI105" s="1">
-        <f t="shared" si="224"/>
-        <v>1674</v>
-      </c>
-      <c r="AJ105" s="1">
-        <f t="shared" si="225"/>
-        <v>2760</v>
-      </c>
-      <c r="AK105" s="1">
-        <f t="shared" si="226"/>
-        <v>1166</v>
-      </c>
-      <c r="AL105" s="1">
-        <f t="shared" si="227"/>
-        <v>1842</v>
-      </c>
-      <c r="AM105" s="1">
-        <f t="shared" si="228"/>
-        <v>2044</v>
-      </c>
-      <c r="AN105" s="1">
-        <f t="shared" si="229"/>
-        <v>1961</v>
-      </c>
-      <c r="AP105" s="1">
-        <f t="shared" si="230"/>
-        <v>0</v>
-      </c>
-      <c r="AQ105" s="1">
-        <f t="shared" si="231"/>
-        <v>0</v>
-      </c>
-      <c r="AR105" s="1">
-        <f t="shared" si="232"/>
-        <v>-1788</v>
-      </c>
-      <c r="AS105" s="1">
-        <f t="shared" si="233"/>
-        <v>-1674</v>
-      </c>
-      <c r="AT105" s="1">
-        <f t="shared" si="234"/>
-        <v>-2760</v>
-      </c>
-      <c r="AU105" s="1">
-        <f t="shared" si="235"/>
-        <v>6607</v>
-      </c>
-      <c r="AV105" s="1">
-        <f t="shared" si="236"/>
-        <v>5872</v>
-      </c>
-      <c r="AW105" s="1">
-        <f t="shared" si="237"/>
-        <v>7224</v>
-      </c>
-      <c r="AX105" s="1">
-        <f t="shared" si="238"/>
-        <v>5713</v>
-      </c>
-      <c r="AY105" s="1">
-        <f t="shared" si="239"/>
-        <v>8366</v>
-      </c>
-      <c r="AZ105" s="1">
-        <f t="shared" si="240"/>
-        <v>8270</v>
-      </c>
-      <c r="BA105" s="1">
-        <f t="shared" si="241"/>
-        <v>7778</v>
-      </c>
-      <c r="BC105" s="1">
-        <f t="shared" si="242"/>
-        <v>0</v>
-      </c>
-      <c r="BD105" s="1">
-        <f t="shared" si="243"/>
-        <v>0</v>
-      </c>
-      <c r="BE105" s="1">
-        <f t="shared" si="244"/>
-        <v>0</v>
-      </c>
-      <c r="BF105" s="1">
-        <f t="shared" si="245"/>
-        <v>0</v>
-      </c>
-      <c r="BG105" s="1">
-        <f t="shared" si="246"/>
-        <v>0</v>
-      </c>
-      <c r="BH105" s="1">
-        <f t="shared" si="247"/>
-        <v>125299</v>
-      </c>
-      <c r="BI105" s="1">
-        <f t="shared" si="248"/>
-        <v>125222</v>
-      </c>
-      <c r="BJ105" s="1">
-        <f t="shared" si="249"/>
-        <v>124827</v>
-      </c>
-      <c r="BK105" s="1">
-        <f t="shared" si="250"/>
-        <v>125408</v>
-      </c>
-      <c r="BL105" s="1">
-        <f t="shared" si="251"/>
-        <v>125341</v>
-      </c>
-      <c r="BM105" s="1">
-        <f t="shared" si="252"/>
-        <v>127614</v>
-      </c>
-      <c r="BN105" s="1">
-        <f t="shared" si="253"/>
-        <v>129070</v>
-      </c>
-      <c r="BP105" s="1">
-        <f t="shared" si="254"/>
-        <v>0</v>
-      </c>
-      <c r="BQ105" s="1">
-        <f t="shared" si="255"/>
-        <v>0</v>
-      </c>
-      <c r="BR105" s="1">
-        <f t="shared" si="256"/>
-        <v>0</v>
-      </c>
-      <c r="BS105" s="1">
-        <f t="shared" si="257"/>
-        <v>0</v>
-      </c>
-      <c r="BT105" s="1">
-        <f t="shared" si="258"/>
-        <v>0</v>
-      </c>
-      <c r="BU105" s="1">
-        <f t="shared" si="259"/>
-        <v>50</v>
-      </c>
-      <c r="BV105" s="1">
-        <f t="shared" si="260"/>
-        <v>54</v>
-      </c>
-      <c r="BW105" s="1">
-        <f t="shared" si="261"/>
-        <v>59</v>
-      </c>
-      <c r="BX105" s="1">
-        <f t="shared" si="262"/>
-        <v>55</v>
-      </c>
-      <c r="BY105" s="1">
-        <f t="shared" si="263"/>
-        <v>60</v>
-      </c>
-      <c r="BZ105" s="1">
-        <f t="shared" si="264"/>
-        <v>64</v>
-      </c>
-      <c r="CA105" s="1">
-        <f t="shared" si="265"/>
-        <v>65</v>
-      </c>
-      <c r="CB105" s="1">
-        <f t="shared" si="266"/>
-        <v>1</v>
-      </c>
-      <c r="CD105" s="1">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="CE105" s="1">
-        <f t="shared" si="268"/>
-        <v>0</v>
-      </c>
-      <c r="CF105" s="1">
-        <f t="shared" si="269"/>
-        <v>0</v>
-      </c>
-      <c r="CG105" s="1">
-        <f t="shared" si="270"/>
-        <v>0</v>
-      </c>
-      <c r="CH105" s="1">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="CI105" s="1">
-        <f t="shared" si="272"/>
-        <v>120</v>
-      </c>
-      <c r="CJ105" s="1">
-        <f t="shared" si="273"/>
-        <v>96</v>
-      </c>
-      <c r="CK105" s="1">
-        <f t="shared" si="274"/>
-        <v>93</v>
-      </c>
-      <c r="CL105" s="1">
-        <f t="shared" si="275"/>
-        <v>88</v>
-      </c>
-      <c r="CM105" s="1">
-        <f t="shared" si="276"/>
-        <v>75</v>
-      </c>
-      <c r="CN105" s="1">
-        <f t="shared" si="277"/>
-        <v>80</v>
-      </c>
-      <c r="CO105" s="1">
-        <f t="shared" si="278"/>
-        <v>71</v>
-      </c>
-      <c r="CP105" s="1">
-        <v>103</v>
-      </c>
+      <c r="B105" s="3"/>
+      <c r="P105" s="3"/>
     </row>
     <row r="106" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>202310</v>
-      </c>
-      <c r="B106" s="3">
-        <v>700</v>
-      </c>
-      <c r="C106" s="1">
-        <v>700</v>
-      </c>
-      <c r="D106" s="1">
-        <v>700</v>
-      </c>
-      <c r="E106" s="1">
-        <v>700</v>
-      </c>
-      <c r="F106" s="1">
-        <v>700</v>
-      </c>
-      <c r="G106" s="1">
-        <v>700</v>
-      </c>
-      <c r="H106" s="1">
-        <v>575</v>
-      </c>
-      <c r="I106" s="1">
-        <v>500</v>
-      </c>
-      <c r="J106" s="1">
-        <v>450</v>
-      </c>
-      <c r="K106" s="1">
-        <v>450</v>
-      </c>
-      <c r="L106" s="1">
-        <v>375</v>
-      </c>
-      <c r="M106" s="1">
-        <v>375</v>
-      </c>
-      <c r="N106" s="1">
-        <v>275</v>
-      </c>
-      <c r="P106" s="3">
-        <f t="shared" si="206"/>
-        <v>0</v>
-      </c>
-      <c r="Q106" s="1">
-        <f t="shared" si="207"/>
-        <v>0</v>
-      </c>
-      <c r="R106" s="1">
-        <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="S106" s="1">
-        <f t="shared" si="209"/>
-        <v>0</v>
-      </c>
-      <c r="T106" s="1">
-        <f t="shared" si="210"/>
-        <v>0</v>
-      </c>
-      <c r="U106" s="1">
-        <f t="shared" si="211"/>
-        <v>0</v>
-      </c>
-      <c r="V106" s="1">
-        <f t="shared" si="212"/>
-        <v>7773</v>
-      </c>
-      <c r="W106" s="1">
-        <f t="shared" si="213"/>
-        <v>7714</v>
-      </c>
-      <c r="X106" s="1">
-        <f t="shared" si="214"/>
-        <v>9268</v>
-      </c>
-      <c r="Y106" s="1">
-        <f t="shared" si="215"/>
-        <v>7674</v>
-      </c>
-      <c r="Z106" s="1">
-        <f t="shared" si="216"/>
-        <v>8366</v>
-      </c>
-      <c r="AA106" s="1">
-        <f t="shared" si="217"/>
-        <v>8270</v>
-      </c>
-      <c r="AC106" s="1">
-        <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="AD106" s="1">
-        <f t="shared" si="219"/>
-        <v>0</v>
-      </c>
-      <c r="AE106" s="1">
-        <f t="shared" si="220"/>
-        <v>0</v>
-      </c>
-      <c r="AF106" s="1">
-        <f t="shared" si="221"/>
-        <v>0</v>
-      </c>
-      <c r="AG106" s="1">
-        <f t="shared" si="222"/>
-        <v>0</v>
-      </c>
-      <c r="AH106" s="1">
-        <f t="shared" si="223"/>
-        <v>0</v>
-      </c>
-      <c r="AI106" s="1">
-        <f t="shared" si="224"/>
-        <v>1788</v>
-      </c>
-      <c r="AJ106" s="1">
-        <f t="shared" si="225"/>
-        <v>1674</v>
-      </c>
-      <c r="AK106" s="1">
-        <f t="shared" si="226"/>
-        <v>2760</v>
-      </c>
-      <c r="AL106" s="1">
-        <f t="shared" si="227"/>
-        <v>1166</v>
-      </c>
-      <c r="AM106" s="1">
-        <f t="shared" si="228"/>
-        <v>1842</v>
-      </c>
-      <c r="AN106" s="1">
-        <f t="shared" si="229"/>
-        <v>2044</v>
-      </c>
-      <c r="AP106" s="1">
-        <f t="shared" si="230"/>
-        <v>0</v>
-      </c>
-      <c r="AQ106" s="1">
-        <f t="shared" si="231"/>
-        <v>0</v>
-      </c>
-      <c r="AR106" s="1">
-        <f t="shared" si="232"/>
-        <v>0</v>
-      </c>
-      <c r="AS106" s="1">
-        <f t="shared" si="233"/>
-        <v>-1788</v>
-      </c>
-      <c r="AT106" s="1">
-        <f t="shared" si="234"/>
-        <v>-1674</v>
-      </c>
-      <c r="AU106" s="1">
-        <f t="shared" si="235"/>
-        <v>-2760</v>
-      </c>
-      <c r="AV106" s="1">
-        <f t="shared" si="236"/>
-        <v>6607</v>
-      </c>
-      <c r="AW106" s="1">
-        <f t="shared" si="237"/>
-        <v>5872</v>
-      </c>
-      <c r="AX106" s="1">
-        <f t="shared" si="238"/>
-        <v>7224</v>
-      </c>
-      <c r="AY106" s="1">
-        <f t="shared" si="239"/>
-        <v>7674</v>
-      </c>
-      <c r="AZ106" s="1">
-        <f t="shared" si="240"/>
-        <v>8366</v>
-      </c>
-      <c r="BA106" s="1">
-        <f t="shared" si="241"/>
-        <v>8270</v>
-      </c>
-      <c r="BC106" s="1">
-        <f t="shared" si="242"/>
-        <v>0</v>
-      </c>
-      <c r="BD106" s="1">
-        <f t="shared" si="243"/>
-        <v>0</v>
-      </c>
-      <c r="BE106" s="1">
-        <f t="shared" si="244"/>
-        <v>0</v>
-      </c>
-      <c r="BF106" s="1">
-        <f t="shared" si="245"/>
-        <v>0</v>
-      </c>
-      <c r="BG106" s="1">
-        <f t="shared" si="246"/>
-        <v>0</v>
-      </c>
-      <c r="BH106" s="1">
-        <f t="shared" si="247"/>
-        <v>0</v>
-      </c>
-      <c r="BI106" s="1">
-        <f t="shared" si="248"/>
-        <v>125299</v>
-      </c>
-      <c r="BJ106" s="1">
-        <f t="shared" si="249"/>
-        <v>125222</v>
-      </c>
-      <c r="BK106" s="1">
-        <f t="shared" si="250"/>
-        <v>124827</v>
-      </c>
-      <c r="BL106" s="1">
-        <f t="shared" si="251"/>
-        <v>125408</v>
-      </c>
-      <c r="BM106" s="1">
-        <f t="shared" si="252"/>
-        <v>125341</v>
-      </c>
-      <c r="BN106" s="1">
-        <f t="shared" si="253"/>
-        <v>127614</v>
-      </c>
-      <c r="BP106" s="1">
-        <f t="shared" si="254"/>
-        <v>0</v>
-      </c>
-      <c r="BQ106" s="1">
-        <f t="shared" si="255"/>
-        <v>0</v>
-      </c>
-      <c r="BR106" s="1">
-        <f t="shared" si="256"/>
-        <v>0</v>
-      </c>
-      <c r="BS106" s="1">
-        <f t="shared" si="257"/>
-        <v>0</v>
-      </c>
-      <c r="BT106" s="1">
-        <f t="shared" si="258"/>
-        <v>0</v>
-      </c>
-      <c r="BU106" s="1">
-        <f t="shared" si="259"/>
-        <v>0</v>
-      </c>
-      <c r="BV106" s="1">
-        <f t="shared" si="260"/>
-        <v>50</v>
-      </c>
-      <c r="BW106" s="1">
-        <f t="shared" si="261"/>
-        <v>54</v>
-      </c>
-      <c r="BX106" s="1">
-        <f t="shared" si="262"/>
-        <v>59</v>
-      </c>
-      <c r="BY106" s="1">
-        <f t="shared" si="263"/>
-        <v>55</v>
-      </c>
-      <c r="BZ106" s="1">
-        <f t="shared" si="264"/>
-        <v>60</v>
-      </c>
-      <c r="CA106" s="1">
-        <f t="shared" si="265"/>
-        <v>64</v>
-      </c>
-      <c r="CB106" s="1">
-        <f t="shared" si="266"/>
-        <v>1</v>
-      </c>
-      <c r="CD106" s="1">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="CE106" s="1">
-        <f t="shared" si="268"/>
-        <v>0</v>
-      </c>
-      <c r="CF106" s="1">
-        <f t="shared" si="269"/>
-        <v>0</v>
-      </c>
-      <c r="CG106" s="1">
-        <f t="shared" si="270"/>
-        <v>0</v>
-      </c>
-      <c r="CH106" s="1">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="CI106" s="1">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="CJ106" s="1">
-        <f t="shared" si="273"/>
-        <v>120</v>
-      </c>
-      <c r="CK106" s="1">
-        <f t="shared" si="274"/>
-        <v>96</v>
-      </c>
-      <c r="CL106" s="1">
-        <f t="shared" si="275"/>
-        <v>93</v>
-      </c>
-      <c r="CM106" s="1">
-        <f t="shared" si="276"/>
-        <v>88</v>
-      </c>
-      <c r="CN106" s="1">
-        <f t="shared" si="277"/>
-        <v>75</v>
-      </c>
-      <c r="CO106" s="1">
-        <f t="shared" si="278"/>
-        <v>80</v>
-      </c>
-      <c r="CP106" s="1">
-        <v>104</v>
-      </c>
+      <c r="B106" s="3"/>
+      <c r="P106" s="3"/>
     </row>
     <row r="107" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>202311</v>
-      </c>
-      <c r="B107" s="3">
-        <v>700</v>
-      </c>
-      <c r="C107" s="1">
-        <v>700</v>
-      </c>
-      <c r="D107" s="1">
-        <v>700</v>
-      </c>
-      <c r="E107" s="1">
-        <v>700</v>
-      </c>
-      <c r="F107" s="1">
-        <v>700</v>
-      </c>
-      <c r="G107" s="1">
-        <v>700</v>
-      </c>
-      <c r="H107" s="1">
-        <v>575</v>
-      </c>
-      <c r="I107" s="1">
-        <v>500</v>
-      </c>
-      <c r="J107" s="1">
-        <v>450</v>
-      </c>
-      <c r="K107" s="1">
-        <v>450</v>
-      </c>
-      <c r="L107" s="1">
-        <v>375</v>
-      </c>
-      <c r="M107" s="1">
-        <v>375</v>
-      </c>
-      <c r="N107" s="1">
-        <v>275</v>
-      </c>
-      <c r="P107" s="3">
-        <f t="shared" si="206"/>
-        <v>0</v>
-      </c>
-      <c r="Q107" s="1">
-        <f t="shared" si="207"/>
-        <v>0</v>
-      </c>
-      <c r="R107" s="1">
-        <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="S107" s="1">
-        <f t="shared" si="209"/>
-        <v>0</v>
-      </c>
-      <c r="T107" s="1">
-        <f t="shared" si="210"/>
-        <v>0</v>
-      </c>
-      <c r="U107" s="1">
-        <f t="shared" si="211"/>
-        <v>0</v>
-      </c>
-      <c r="V107" s="1">
-        <f t="shared" si="212"/>
-        <v>0</v>
-      </c>
-      <c r="W107" s="1">
-        <f t="shared" si="213"/>
-        <v>7773</v>
-      </c>
-      <c r="X107" s="1">
-        <f t="shared" si="214"/>
-        <v>7714</v>
-      </c>
-      <c r="Y107" s="1">
-        <f t="shared" si="215"/>
-        <v>9268</v>
-      </c>
-      <c r="Z107" s="1">
-        <f t="shared" si="216"/>
-        <v>7674</v>
-      </c>
-      <c r="AA107" s="1">
-        <f t="shared" si="217"/>
-        <v>8366</v>
-      </c>
-      <c r="AC107" s="1">
-        <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="AD107" s="1">
-        <f t="shared" si="219"/>
-        <v>0</v>
-      </c>
-      <c r="AE107" s="1">
-        <f t="shared" si="220"/>
-        <v>0</v>
-      </c>
-      <c r="AF107" s="1">
-        <f t="shared" si="221"/>
-        <v>0</v>
-      </c>
-      <c r="AG107" s="1">
-        <f t="shared" si="222"/>
-        <v>0</v>
-      </c>
-      <c r="AH107" s="1">
-        <f t="shared" si="223"/>
-        <v>0</v>
-      </c>
-      <c r="AI107" s="1">
-        <f t="shared" si="224"/>
-        <v>0</v>
-      </c>
-      <c r="AJ107" s="1">
-        <f t="shared" si="225"/>
-        <v>1788</v>
-      </c>
-      <c r="AK107" s="1">
-        <f t="shared" si="226"/>
-        <v>1674</v>
-      </c>
-      <c r="AL107" s="1">
-        <f t="shared" si="227"/>
-        <v>2760</v>
-      </c>
-      <c r="AM107" s="1">
-        <f t="shared" si="228"/>
-        <v>1166</v>
-      </c>
-      <c r="AN107" s="1">
-        <f t="shared" si="229"/>
-        <v>1842</v>
-      </c>
-      <c r="AP107" s="1">
-        <f t="shared" si="230"/>
-        <v>0</v>
-      </c>
-      <c r="AQ107" s="1">
-        <f t="shared" si="231"/>
-        <v>0</v>
-      </c>
-      <c r="AR107" s="1">
-        <f t="shared" si="232"/>
-        <v>0</v>
-      </c>
-      <c r="AS107" s="1">
-        <f t="shared" si="233"/>
-        <v>0</v>
-      </c>
-      <c r="AT107" s="1">
-        <f t="shared" si="234"/>
-        <v>-1788</v>
-      </c>
-      <c r="AU107" s="1">
-        <f t="shared" si="235"/>
-        <v>-1674</v>
-      </c>
-      <c r="AV107" s="1">
-        <f t="shared" si="236"/>
-        <v>-2760</v>
-      </c>
-      <c r="AW107" s="1">
-        <f t="shared" si="237"/>
-        <v>6607</v>
-      </c>
-      <c r="AX107" s="1">
-        <f t="shared" si="238"/>
-        <v>5872</v>
-      </c>
-      <c r="AY107" s="1">
-        <f t="shared" si="239"/>
-        <v>9268</v>
-      </c>
-      <c r="AZ107" s="1">
-        <f t="shared" si="240"/>
-        <v>7674</v>
-      </c>
-      <c r="BA107" s="1">
-        <f t="shared" si="241"/>
-        <v>8366</v>
-      </c>
-      <c r="BC107" s="1">
-        <f t="shared" si="242"/>
-        <v>0</v>
-      </c>
-      <c r="BD107" s="1">
-        <f t="shared" si="243"/>
-        <v>0</v>
-      </c>
-      <c r="BE107" s="1">
-        <f t="shared" si="244"/>
-        <v>0</v>
-      </c>
-      <c r="BF107" s="1">
-        <f t="shared" si="245"/>
-        <v>0</v>
-      </c>
-      <c r="BG107" s="1">
-        <f t="shared" si="246"/>
-        <v>0</v>
-      </c>
-      <c r="BH107" s="1">
-        <f t="shared" si="247"/>
-        <v>0</v>
-      </c>
-      <c r="BI107" s="1">
-        <f t="shared" si="248"/>
-        <v>0</v>
-      </c>
-      <c r="BJ107" s="1">
-        <f t="shared" si="249"/>
-        <v>125299</v>
-      </c>
-      <c r="BK107" s="1">
-        <f t="shared" si="250"/>
-        <v>125222</v>
-      </c>
-      <c r="BL107" s="1">
-        <f t="shared" si="251"/>
-        <v>124827</v>
-      </c>
-      <c r="BM107" s="1">
-        <f t="shared" si="252"/>
-        <v>125408</v>
-      </c>
-      <c r="BN107" s="1">
-        <f t="shared" si="253"/>
-        <v>125341</v>
-      </c>
-      <c r="BP107" s="1">
-        <f t="shared" si="254"/>
-        <v>0</v>
-      </c>
-      <c r="BQ107" s="1">
-        <f t="shared" si="255"/>
-        <v>0</v>
-      </c>
-      <c r="BR107" s="1">
-        <f t="shared" si="256"/>
-        <v>0</v>
-      </c>
-      <c r="BS107" s="1">
-        <f t="shared" si="257"/>
-        <v>0</v>
-      </c>
-      <c r="BT107" s="1">
-        <f t="shared" si="258"/>
-        <v>0</v>
-      </c>
-      <c r="BU107" s="1">
-        <f t="shared" si="259"/>
-        <v>0</v>
-      </c>
-      <c r="BV107" s="1">
-        <f t="shared" si="260"/>
-        <v>0</v>
-      </c>
-      <c r="BW107" s="1">
-        <f t="shared" si="261"/>
-        <v>50</v>
-      </c>
-      <c r="BX107" s="1">
-        <f t="shared" si="262"/>
-        <v>54</v>
-      </c>
-      <c r="BY107" s="1">
-        <f t="shared" si="263"/>
-        <v>59</v>
-      </c>
-      <c r="BZ107" s="1">
-        <f t="shared" si="264"/>
-        <v>55</v>
-      </c>
-      <c r="CA107" s="1">
-        <f t="shared" si="265"/>
-        <v>60</v>
-      </c>
-      <c r="CB107" s="1">
-        <f t="shared" si="266"/>
-        <v>1</v>
-      </c>
-      <c r="CD107" s="1">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="CE107" s="1">
-        <f t="shared" si="268"/>
-        <v>0</v>
-      </c>
-      <c r="CF107" s="1">
-        <f t="shared" si="269"/>
-        <v>0</v>
-      </c>
-      <c r="CG107" s="1">
-        <f t="shared" si="270"/>
-        <v>0</v>
-      </c>
-      <c r="CH107" s="1">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="CI107" s="1">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="CJ107" s="1">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="CK107" s="1">
-        <f t="shared" si="274"/>
-        <v>120</v>
-      </c>
-      <c r="CL107" s="1">
-        <f t="shared" si="275"/>
-        <v>96</v>
-      </c>
-      <c r="CM107" s="1">
-        <f t="shared" si="276"/>
-        <v>93</v>
-      </c>
-      <c r="CN107" s="1">
-        <f t="shared" si="277"/>
-        <v>88</v>
-      </c>
-      <c r="CO107" s="1">
-        <f t="shared" si="278"/>
-        <v>75</v>
-      </c>
-      <c r="CP107" s="1">
-        <v>105</v>
-      </c>
+      <c r="B107" s="3"/>
+      <c r="P107" s="3"/>
     </row>
     <row r="108" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>202312</v>
-      </c>
-      <c r="B108" s="3">
-        <v>700</v>
-      </c>
-      <c r="C108" s="1">
-        <v>700</v>
-      </c>
-      <c r="D108" s="1">
-        <v>700</v>
-      </c>
-      <c r="E108" s="1">
-        <v>700</v>
-      </c>
-      <c r="F108" s="1">
-        <v>700</v>
-      </c>
-      <c r="G108" s="1">
-        <v>700</v>
-      </c>
-      <c r="H108" s="1">
-        <v>575</v>
-      </c>
-      <c r="I108" s="1">
-        <v>500</v>
-      </c>
-      <c r="J108" s="1">
-        <v>450</v>
-      </c>
-      <c r="K108" s="1">
-        <v>450</v>
-      </c>
-      <c r="L108" s="1">
-        <v>375</v>
-      </c>
-      <c r="M108" s="1">
-        <v>375</v>
-      </c>
-      <c r="N108" s="1">
-        <v>275</v>
-      </c>
-      <c r="P108" s="3">
-        <f t="shared" si="206"/>
-        <v>0</v>
-      </c>
-      <c r="Q108" s="1">
-        <f t="shared" si="207"/>
-        <v>0</v>
-      </c>
-      <c r="R108" s="1">
-        <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="S108" s="1">
-        <f t="shared" si="209"/>
-        <v>0</v>
-      </c>
-      <c r="T108" s="1">
-        <f t="shared" si="210"/>
-        <v>0</v>
-      </c>
-      <c r="U108" s="1">
-        <f t="shared" si="211"/>
-        <v>0</v>
-      </c>
-      <c r="V108" s="1">
-        <f t="shared" si="212"/>
-        <v>0</v>
-      </c>
-      <c r="W108" s="1">
-        <f t="shared" si="213"/>
-        <v>0</v>
-      </c>
-      <c r="X108" s="1">
-        <f t="shared" si="214"/>
-        <v>7773</v>
-      </c>
-      <c r="Y108" s="1">
-        <f t="shared" si="215"/>
-        <v>7714</v>
-      </c>
-      <c r="Z108" s="1">
-        <f t="shared" si="216"/>
-        <v>9268</v>
-      </c>
-      <c r="AA108" s="1">
-        <f t="shared" si="217"/>
-        <v>7674</v>
-      </c>
-      <c r="AC108" s="1">
-        <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="AD108" s="1">
-        <f t="shared" si="219"/>
-        <v>0</v>
-      </c>
-      <c r="AE108" s="1">
-        <f t="shared" si="220"/>
-        <v>0</v>
-      </c>
-      <c r="AF108" s="1">
-        <f t="shared" si="221"/>
-        <v>0</v>
-      </c>
-      <c r="AG108" s="1">
-        <f t="shared" si="222"/>
-        <v>0</v>
-      </c>
-      <c r="AH108" s="1">
-        <f t="shared" si="223"/>
-        <v>0</v>
-      </c>
-      <c r="AI108" s="1">
-        <f t="shared" si="224"/>
-        <v>0</v>
-      </c>
-      <c r="AJ108" s="1">
-        <f t="shared" si="225"/>
-        <v>0</v>
-      </c>
-      <c r="AK108" s="1">
-        <f t="shared" si="226"/>
-        <v>1788</v>
-      </c>
-      <c r="AL108" s="1">
-        <f t="shared" si="227"/>
-        <v>1674</v>
-      </c>
-      <c r="AM108" s="1">
-        <f t="shared" si="228"/>
-        <v>2760</v>
-      </c>
-      <c r="AN108" s="1">
-        <f t="shared" si="229"/>
-        <v>1166</v>
-      </c>
-      <c r="AP108" s="1">
-        <f t="shared" si="230"/>
-        <v>0</v>
-      </c>
-      <c r="AQ108" s="1">
-        <f t="shared" si="231"/>
-        <v>0</v>
-      </c>
-      <c r="AR108" s="1">
-        <f t="shared" si="232"/>
-        <v>0</v>
-      </c>
-      <c r="AS108" s="1">
-        <f t="shared" si="233"/>
-        <v>0</v>
-      </c>
-      <c r="AT108" s="1">
-        <f t="shared" si="234"/>
-        <v>0</v>
-      </c>
-      <c r="AU108" s="1">
-        <f t="shared" si="235"/>
-        <v>-1788</v>
-      </c>
-      <c r="AV108" s="1">
-        <f t="shared" si="236"/>
-        <v>-1674</v>
-      </c>
-      <c r="AW108" s="1">
-        <f t="shared" si="237"/>
-        <v>-2760</v>
-      </c>
-      <c r="AX108" s="1">
-        <f t="shared" si="238"/>
-        <v>6607</v>
-      </c>
-      <c r="AY108" s="1">
-        <f t="shared" si="239"/>
-        <v>7714</v>
-      </c>
-      <c r="AZ108" s="1">
-        <f t="shared" si="240"/>
-        <v>9268</v>
-      </c>
-      <c r="BA108" s="1">
-        <f t="shared" si="241"/>
-        <v>7674</v>
-      </c>
-      <c r="BC108" s="1">
-        <f t="shared" si="242"/>
-        <v>0</v>
-      </c>
-      <c r="BD108" s="1">
-        <f t="shared" si="243"/>
-        <v>0</v>
-      </c>
-      <c r="BE108" s="1">
-        <f t="shared" si="244"/>
-        <v>0</v>
-      </c>
-      <c r="BF108" s="1">
-        <f t="shared" si="245"/>
-        <v>0</v>
-      </c>
-      <c r="BG108" s="1">
-        <f t="shared" si="246"/>
-        <v>0</v>
-      </c>
-      <c r="BH108" s="1">
-        <f t="shared" si="247"/>
-        <v>0</v>
-      </c>
-      <c r="BI108" s="1">
-        <f t="shared" si="248"/>
-        <v>0</v>
-      </c>
-      <c r="BJ108" s="1">
-        <f t="shared" si="249"/>
-        <v>0</v>
-      </c>
-      <c r="BK108" s="1">
-        <f t="shared" si="250"/>
-        <v>125299</v>
-      </c>
-      <c r="BL108" s="1">
-        <f t="shared" si="251"/>
-        <v>125222</v>
-      </c>
-      <c r="BM108" s="1">
-        <f t="shared" si="252"/>
-        <v>124827</v>
-      </c>
-      <c r="BN108" s="1">
-        <f t="shared" si="253"/>
-        <v>125408</v>
-      </c>
-      <c r="BP108" s="1">
-        <f t="shared" si="254"/>
-        <v>0</v>
-      </c>
-      <c r="BQ108" s="1">
-        <f t="shared" si="255"/>
-        <v>0</v>
-      </c>
-      <c r="BR108" s="1">
-        <f t="shared" si="256"/>
-        <v>0</v>
-      </c>
-      <c r="BS108" s="1">
-        <f t="shared" si="257"/>
-        <v>0</v>
-      </c>
-      <c r="BT108" s="1">
-        <f t="shared" si="258"/>
-        <v>0</v>
-      </c>
-      <c r="BU108" s="1">
-        <f t="shared" si="259"/>
-        <v>0</v>
-      </c>
-      <c r="BV108" s="1">
-        <f t="shared" si="260"/>
-        <v>0</v>
-      </c>
-      <c r="BW108" s="1">
-        <f t="shared" si="261"/>
-        <v>0</v>
-      </c>
-      <c r="BX108" s="1">
-        <f t="shared" si="262"/>
-        <v>50</v>
-      </c>
-      <c r="BY108" s="1">
-        <f t="shared" si="263"/>
-        <v>54</v>
-      </c>
-      <c r="BZ108" s="1">
-        <f t="shared" si="264"/>
-        <v>59</v>
-      </c>
-      <c r="CA108" s="1">
-        <f t="shared" si="265"/>
-        <v>55</v>
-      </c>
-      <c r="CB108" s="1">
-        <f t="shared" si="266"/>
-        <v>1</v>
-      </c>
-      <c r="CD108" s="1">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="CE108" s="1">
-        <f t="shared" si="268"/>
-        <v>0</v>
-      </c>
-      <c r="CF108" s="1">
-        <f t="shared" si="269"/>
-        <v>0</v>
-      </c>
-      <c r="CG108" s="1">
-        <f t="shared" si="270"/>
-        <v>0</v>
-      </c>
-      <c r="CH108" s="1">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="CI108" s="1">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="CJ108" s="1">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="CK108" s="1">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="CL108" s="1">
-        <f t="shared" si="275"/>
-        <v>120</v>
-      </c>
-      <c r="CM108" s="1">
-        <f t="shared" si="276"/>
-        <v>96</v>
-      </c>
-      <c r="CN108" s="1">
-        <f t="shared" si="277"/>
-        <v>93</v>
-      </c>
-      <c r="CO108" s="1">
-        <f t="shared" si="278"/>
-        <v>88</v>
-      </c>
-      <c r="CP108" s="1">
-        <v>106</v>
-      </c>
+      <c r="B108" s="3"/>
+      <c r="P108" s="3"/>
     </row>
     <row r="109" spans="1:96" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="12"/>

--- a/production code/production dataset.xlsx
+++ b/production code/production dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f619c9dbaff66258/Dokumenty/GitHub/predikce-nabidky/production code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{7CD2E4E8-1F28-44FE-ADE5-F3B50EE5FD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E1A0D01-F0D0-4D87-B614-81DEF6494E34}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{7CD2E4E8-1F28-44FE-ADE5-F3B50EE5FD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{280E69E2-1FCF-4E7B-A754-95ED2E59F3C0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,12 +542,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -846,7 +842,7 @@
   <dimension ref="A1:DC190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:XFD108"/>
+      <selection activeCell="AO101" sqref="AO101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25228,7 +25224,7 @@
         <v>1888</v>
       </c>
       <c r="AO70" s="10">
-        <f t="shared" ref="AO70:AO99" si="43">IF(CB70=1,O70-AC70,IF(CB70=2,O70-AD70,O70-AE70))</f>
+        <f t="shared" ref="AO70:AO100" si="43">IF(CB70=1,O70-AC70,IF(CB70=2,O70-AD70,O70-AE70))</f>
         <v>5253</v>
       </c>
       <c r="AP70">
@@ -35611,7 +35607,7 @@
         <v>1894</v>
       </c>
       <c r="AO99" s="11">
-        <f t="shared" si="43"/>
+        <f>IF(CB99=1,O99-AC99,IF(CB99=2,O99-AD99,O99-AE99))</f>
         <v>6607</v>
       </c>
       <c r="AP99" s="11">
@@ -35963,6 +35959,7 @@
         <f t="shared" ref="AN100" si="158">AM99</f>
         <v>1822</v>
       </c>
+      <c r="AO100" s="10"/>
       <c r="AP100" s="11">
         <f>IF(CC100=1,P100-AD100,IF(CC100=2,P100-AE100,P100-AF100))</f>
         <v>6607</v>
